--- a/技能表.xlsx
+++ b/技能表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Cpp\测试\摸鱼小游戏\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Cpp\回合制战斗\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -503,7 +503,24 @@
   </si>
   <si>
     <r>
-      <t>消耗一半，</t>
+      <t>使用失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>败</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>消耗一半能量，</t>
     </r>
     <r>
       <rPr>
@@ -526,23 +543,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>满hp，本场不能继续用恢复类技能</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>使用失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>败</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -895,7 +895,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1187,7 +1187,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/技能表.xlsx
+++ b/技能表.xlsx
@@ -272,23 +272,6 @@
   </si>
   <si>
     <r>
-      <t>只能装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>备剑类武器来使用</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>烈火</t>
     </r>
     <r>
@@ -332,60 +315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>若装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>备剑类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>武器，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>害增加1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>减少5hp，若装备剑类武器，伤害增加3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>弱水三千</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,6 +472,121 @@
         <scheme val="minor"/>
       </rPr>
       <t>满hp，本场不能继续用恢复类技能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>减少5hp，若装备剑类武器则伤害增加3，给予敌人10层“着火”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>只能装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备剑类武器来使用，给予敌人2层“着火”</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>若装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备剑类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“着火”</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -895,7 +939,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -917,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -931,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1019,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1027,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1039,7 +1083,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1047,16 +1091,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1064,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1076,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1121,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1130,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1138,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1147,10 +1191,10 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1158,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -1170,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1178,16 +1222,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>-1</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/技能表.xlsx
+++ b/技能表.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
